--- a/Between_Origins_and_destinations.xlsx
+++ b/Between_Origins_and_destinations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCBBDC4F-5313-DD4D-A3ED-B3C0AE2A7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D074C7-3112-41AF-BD80-73BADA2794FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="8040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1226,12 +1226,12 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="59"/>
       <c r="B1" s="60" t="s">
         <v>28</v>
@@ -1246,7 +1246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>42</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>38</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>46</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>39</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>47</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>48</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>34</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>37</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>49</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>35</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>51</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>53</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>54</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>55</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>32</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>58</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>59</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>36</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>15</v>
       </c>
@@ -1729,15 +1729,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="8" t="s">
         <v>61</v>
       </c>
@@ -1757,82 +1757,82 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8" t="s">
         <v>82</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -2019,9 +2019,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -2036,7 +2036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>27</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>39</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>47</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>34</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>49</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>50</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>52</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>53</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>54</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>55</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>56</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>32</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>57</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>58</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>59</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>60</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>15</v>
       </c>
@@ -2591,9 +2591,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2772,18 +2772,18 @@
       <selection activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,56 +2827,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G2" s="2" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="5">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2901,29 +2901,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="M3" s="2" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -2977,56 +2977,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="5">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="2" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3050,56 +3050,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3123,56 +3123,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3196,56 +3196,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="5">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3260,56 +3260,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3324,56 +3324,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3385,56 +3385,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3446,56 +3446,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -3508,49 +3508,49 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -3572,29 +3572,29 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3621,84 +3621,84 @@
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3725,10 +3725,10 @@
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3780,111 +3780,111 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -3949,56 +3949,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>25</v>
@@ -4016,56 +4016,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="2" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>27</v>
@@ -4083,56 +4083,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>40</v>
@@ -4156,56 +4156,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>42</v>
@@ -4229,29 +4229,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>44</v>
@@ -4303,56 +4303,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>38</v>
@@ -4373,29 +4373,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4443,56 +4443,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="2" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R27" s="13" t="s">
         <v>39</v>
@@ -4513,56 +4513,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="2" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>47</v>
@@ -4583,56 +4583,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="2" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>48</v>
@@ -4653,7 +4653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -4723,56 +4723,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="2" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="R31" s="13" t="s">
         <v>37</v>
@@ -4793,7 +4793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4826,7 +4826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -4854,7 +4854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -4880,7 +4880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -4908,7 +4908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -4936,7 +4936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -4964,7 +4964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -5020,7 +5020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -5046,7 +5046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -5074,7 +5074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -5102,7 +5102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -5130,7 +5130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -5158,7 +5158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -5235,18 +5235,18 @@
       <selection activeCell="O27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -5773,29 +5773,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5834,56 +5834,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5895,56 +5895,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -5957,56 +5957,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -6021,7 +6021,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -6047,33 +6047,33 @@
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6099,290 +6099,290 @@
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -6398,29 +6398,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>25</v>
@@ -6465,56 +6465,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="2" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>27</v>
@@ -6532,56 +6532,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>40</v>
@@ -6605,56 +6605,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>42</v>
@@ -6678,56 +6678,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>44</v>
@@ -6752,56 +6752,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>38</v>
@@ -6822,29 +6822,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="M26" s="2" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R26" s="13" t="s">
         <v>46</v>
@@ -6892,56 +6892,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="2" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="R27" s="13" t="s">
         <v>39</v>
@@ -6962,7 +6962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -6990,7 +6990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -7018,7 +7018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -7046,7 +7046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -7074,7 +7074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -7102,7 +7102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -7130,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -7156,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -7184,7 +7184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -7212,7 +7212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -7240,7 +7240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -7268,7 +7268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -7296,7 +7296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -7322,7 +7322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -7350,7 +7350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -7378,7 +7378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -7406,7 +7406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -7434,7 +7434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -7511,18 +7511,18 @@
       <selection activeCell="N25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -7925,29 +7925,29 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7986,7 +7986,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -8012,30 +8012,30 @@
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8047,56 +8047,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8108,56 +8108,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8169,56 +8169,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -8231,56 +8231,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -8295,29 +8295,29 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8344,32 +8344,32 @@
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8396,240 +8396,240 @@
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -8672,56 +8672,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>25</v>
@@ -8739,7 +8739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -8806,29 +8806,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>40</v>
@@ -8879,29 +8879,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>42</v>
@@ -8952,56 +8952,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>44</v>
@@ -9026,56 +9026,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>38</v>
@@ -9096,29 +9096,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="M26" s="2" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R26" s="13" t="s">
         <v>46</v>
@@ -9166,7 +9166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -9194,7 +9194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -9222,7 +9222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -9250,7 +9250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -9278,7 +9278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -9306,7 +9306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -9334,7 +9334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -9362,7 +9362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -9416,7 +9416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -9444,7 +9444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -9472,7 +9472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -9500,7 +9500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -9528,7 +9528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -9554,7 +9554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -9582,7 +9582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -9610,7 +9610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -9638,7 +9638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -9666,7 +9666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -9743,18 +9743,18 @@
       <selection activeCell="N19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -10157,56 +10157,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10218,56 +10218,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10279,56 +10279,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10340,29 +10340,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10401,56 +10401,56 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -10463,7 +10463,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -10489,30 +10489,30 @@
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -10527,368 +10527,368 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -10904,7 +10904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -10929,7 +10929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -10954,7 +10954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -10985,7 +10985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -11016,7 +11016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -11048,7 +11048,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -11076,7 +11076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -11104,7 +11104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -11132,7 +11132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -11160,7 +11160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -11188,7 +11188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -11216,7 +11216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -11244,7 +11244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -11272,7 +11272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -11300,7 +11300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -11326,7 +11326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -11354,7 +11354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -11382,7 +11382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -11410,7 +11410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -11438,7 +11438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -11466,7 +11466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -11492,7 +11492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -11520,7 +11520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -11548,7 +11548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -11576,7 +11576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -11604,7 +11604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -11681,18 +11681,18 @@
       <selection activeCell="H27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -12095,56 +12095,56 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12156,56 +12156,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12217,56 +12217,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12278,56 +12278,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12339,29 +12339,29 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -12401,7 +12401,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -12465,81 +12465,81 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12566,84 +12566,84 @@
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12670,10 +12670,10 @@
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -12683,7 +12683,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -12693,7 +12693,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -12716,7 +12716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -12766,7 +12766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -12797,7 +12797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -12828,7 +12828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -12860,7 +12860,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -12888,7 +12888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -12916,7 +12916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -12944,7 +12944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -12972,7 +12972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -13000,7 +13000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -13028,7 +13028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -13056,7 +13056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -13084,7 +13084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -13112,7 +13112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -13138,7 +13138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -13166,7 +13166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -13194,7 +13194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -13222,7 +13222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -13250,7 +13250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -13278,7 +13278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -13304,7 +13304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -13332,7 +13332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -13360,7 +13360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -13388,7 +13388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -13416,7 +13416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -13493,18 +13493,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -13765,56 +13765,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13835,56 +13835,56 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13905,7 +13905,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -13931,30 +13931,30 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -13966,56 +13966,56 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14027,29 +14027,29 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14088,56 +14088,56 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14149,7 +14149,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -14175,30 +14175,30 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -14211,56 +14211,56 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -14275,7 +14275,7 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -14327,8 +14327,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -14337,7 +14337,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -14347,7 +14347,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -14357,7 +14357,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -14367,7 +14367,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -14390,7 +14390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -14415,7 +14415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -14440,7 +14440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -14471,7 +14471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -14502,7 +14502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -14534,7 +14534,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -14562,7 +14562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -14590,7 +14590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -14618,7 +14618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -14646,7 +14646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -14674,7 +14674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -14702,7 +14702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -14730,7 +14730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -14758,7 +14758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -14786,7 +14786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -14812,7 +14812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -14840,7 +14840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -14868,7 +14868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -14896,7 +14896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -14924,7 +14924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -14952,7 +14952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -14978,7 +14978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -15006,7 +15006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -15034,7 +15034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -15062,7 +15062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -15090,7 +15090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -15167,18 +15167,18 @@
       <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -15368,56 +15368,56 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="2" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15438,56 +15438,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15508,29 +15508,29 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15578,7 +15578,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -15604,30 +15604,30 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15639,49 +15639,49 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
@@ -15700,56 +15700,56 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15761,29 +15761,29 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15810,7 +15810,7 @@
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15822,7 +15822,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -15848,30 +15848,30 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -15884,7 +15884,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -15905,8 +15905,8 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -15915,7 +15915,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -15925,7 +15925,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -15935,7 +15935,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -15945,7 +15945,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -15968,7 +15968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -15993,7 +15993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -16018,7 +16018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -16049,7 +16049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -16080,7 +16080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -16112,7 +16112,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -16140,7 +16140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -16168,7 +16168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -16196,7 +16196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -16224,7 +16224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -16252,7 +16252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -16280,7 +16280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -16308,7 +16308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -16336,7 +16336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -16364,7 +16364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -16390,7 +16390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -16418,7 +16418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -16446,7 +16446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -16474,7 +16474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -16502,7 +16502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -16530,7 +16530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -16556,7 +16556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -16584,7 +16584,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -16612,7 +16612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -16640,7 +16640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -16668,7 +16668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
@@ -16748,19 +16748,19 @@
       <selection activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -16950,29 +16950,29 @@
         <v>60.395409000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="M4" s="2" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17020,56 +17020,56 @@
         <v>60.379098999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17090,7 +17090,7 @@
         <v>60.290962</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -17116,30 +17116,30 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -17160,7 +17160,7 @@
         <v>60.363500999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -17178,7 +17178,7 @@
         <v>60.356560999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -17196,7 +17196,7 @@
         <v>60.368082999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -17214,7 +17214,7 @@
         <v>60.354084999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -17232,7 +17232,7 @@
         <v>60.390343000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -17251,7 +17251,7 @@
         <v>60.375988</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -17272,12 +17272,12 @@
         <v>60.354616</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -17286,7 +17286,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -17296,7 +17296,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -17306,7 +17306,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -17316,7 +17316,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -17339,7 +17339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -17364,7 +17364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -17389,7 +17389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -17420,7 +17420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -17451,7 +17451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -17483,7 +17483,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -17511,7 +17511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -17539,7 +17539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -17567,7 +17567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -17595,7 +17595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -17623,7 +17623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -17651,7 +17651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -17679,7 +17679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -17707,7 +17707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -17735,7 +17735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -17761,7 +17761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
@@ -17789,7 +17789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
@@ -17817,7 +17817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
@@ -17845,7 +17845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
@@ -17873,7 +17873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
@@ -17901,7 +17901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
@@ -17927,7 +17927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -17955,7 +17955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -17983,7 +17983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -18011,7 +18011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -18039,7 +18039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R45" s="13" t="s">
         <v>60</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R46" s="13" t="s">
         <v>36</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="R47" s="13" t="s">
         <v>15</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="932" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B932" s="10"/>
     </row>
   </sheetData>
